--- a/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Sooty Albatross_Prince Edward Islands.xlsx
+++ b/metadata_files/06_metadata_phenology/01_WORKING_monthly_datatypes/Sooty Albatross_Prince Edward Islands.xlsx
@@ -2946,13 +2946,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4F6AC59-D924-49C1-982B-56FBD9FB3AC8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C40ED73A-A892-44E1-A9E0-D346EF928490}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF7C0E0-13B2-44C9-B7AF-27B2D62297A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B9789F-31CF-4D8F-8815-F8DE350162AF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8843CB3A-9C2B-49DB-8E6D-F46F5F495FE0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DB8EF52-09F5-4C69-B649-261257126917}"/>
 </file>